--- a/Duolingo.xlsx
+++ b/Duolingo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,425 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+  <si>
+    <t>the bread</t>
+  </si>
+  <si>
+    <t>the apple</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>all nouns are either masculine or feminine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">end in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>niño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) are masculine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">end in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>niña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) are feminine</t>
+    </r>
+  </si>
+  <si>
+    <t>Verbs</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all verbs change depending on whether the person is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>she</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to be</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>soy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you (informal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eres</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you are</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>él</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> she</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> she is</t>
+    </r>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>hombre</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>una</t>
+  </si>
+  <si>
+    <t>the (male)</t>
+  </si>
+  <si>
+    <t>a (female)</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>a (male)</t>
+  </si>
+  <si>
+    <t>the (female)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>niñ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF1CB0F6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>niñ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF7AC70C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>bebo</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>bebe</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>bebes</t>
+  </si>
+  <si>
+    <t>the water</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>la leche</t>
+  </si>
+  <si>
+    <t>el agua</t>
+  </si>
   <si>
     <r>
       <t>el</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="13"/>
         <color rgb="FF5F5F5F"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> pan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>la</t>
     </r>
     <r>
       <rPr>
@@ -42,44 +448,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>niñ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF1CB0F6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-  </si>
-  <si>
-    <t>the boy</t>
-  </si>
-  <si>
-    <r>
-      <t>la</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>niñ</t>
+      <t xml:space="preserve"> manzan</t>
     </r>
     <r>
       <rPr>
@@ -90,336 +459,6 @@
         <family val="2"/>
       </rPr>
       <t>a</t>
-    </r>
-  </si>
-  <si>
-    <t>the girl</t>
-  </si>
-  <si>
-    <r>
-      <t>el</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pan</t>
-    </r>
-  </si>
-  <si>
-    <t>the bread</t>
-  </si>
-  <si>
-    <r>
-      <t>la</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>manzan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF7AC70C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <t>the apple</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>all nouns are either masculine or feminine</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">end in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>niño</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) are masculine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">end in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>niña</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) are feminine</t>
-    </r>
-  </si>
-  <si>
-    <t>Verbs</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">all verbs change depending on whether the person is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>she</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, etc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to be</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>yo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>soy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tú</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> you (informal)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>eres</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> you are</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>él</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>es</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he is</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ella</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> she</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>es</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> she is</t>
     </r>
   </si>
 </sst>
@@ -427,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +522,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -563,11 +610,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,6 +628,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,48 +909,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -915,87 +1041,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
